--- a/data/Testomato.xlsx
+++ b/data/Testomato.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="150" windowWidth="25980" windowHeight="8850" tabRatio="776" activeTab="4"/>
+    <workbookView xWindow="1635" yWindow="885" windowWidth="24240" windowHeight="8850" tabRatio="776" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="34" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="Locator">Codes!$C$3:$C8</definedName>
     <definedName name="Query">Codes!$E$3:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="182">
   <si>
     <t>Action</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Set up the login credentials</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>WaitUntil</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Enter the user password ({password})</t>
   </si>
   <si>
-    <t>/html/body/header/nav/div/div[2]/ul[2]/li[1]/form[1]/div/input</t>
-  </si>
-  <si>
     <t>Click the Login button</t>
   </si>
   <si>
@@ -337,12 +331,6 @@
     <t>InputSpecs=File!Testomato.xlsx!TomatoLogin</t>
   </si>
   <si>
-    <t>URL=http:www.testomato.com;Browser=Chrome;userEmail=beymelamed@gmail.com;userName=Bey Melamed;Password=pooshek01</t>
-  </si>
-  <si>
-    <t>Value=Testomato – Automated Website Testing;ptp=QSOF</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -433,21 +421,12 @@
     <t>Click the Project Carets</t>
   </si>
   <si>
-    <t>//*[@id="otherProjects"]/li[2]/a</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click the KickStarter Project </t>
   </si>
   <si>
     <t>Click the toggle span to turn test off</t>
   </si>
   <si>
-    <t>Value=OK;CompareMode=Contains</t>
-  </si>
-  <si>
-    <t>Verify the span says OK</t>
-  </si>
-  <si>
     <t>Value=Test is disabled;CompareMode=Contains</t>
   </si>
   <si>
@@ -466,43 +445,133 @@
     <t>SetVars</t>
   </si>
   <si>
-    <t>Project=557999147c3391153d8b45e8</t>
-  </si>
-  <si>
-    <t>Set the project to play with</t>
-  </si>
-  <si>
-    <t>Work with Project '{Project}</t>
-  </si>
-  <si>
     <t>//*[@id="{Project}"]/span[2]/span/span[2]/span[1]</t>
   </si>
   <si>
     <t>//*[@id="{Project}"]/a/span/span[1]</t>
   </si>
   <si>
+    <t>ProjectOffAndOn#</t>
+  </si>
+  <si>
+    <t>InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn</t>
+  </si>
+  <si>
+    <t>Run the test project</t>
+  </si>
+  <si>
+    <t>URL=http:www.testomato.com;Browser=Firefox;userEmail=beymelamed@gmail.com;userName=Bey Melamed;Password=pooshek01</t>
+  </si>
+  <si>
+    <t>Value=Website Monitoring;ptp=QSOF;CompareMode=Contains;option=ignoreCase</t>
+  </si>
+  <si>
+    <t>/html/body/header/nav/div/div[2]/ul/li[4]/div/form[1]/div[3]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/header/div/div[2]/div/div[2]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[4]/div[2]/div[2]/div/div/div[2]/div[2]/ul/li[6]/a/span/span[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[4]/div[2]/div[2]/div/div/div[2]/div[2]/ul/li[6]/a/span/span[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[4]/div[2]/div[2]/div/div/div[2]/div[2]/ul/li[6]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[4]/div[2]/div[2]/div/div/div[2]/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>Login Toggle1</t>
+  </si>
+  <si>
+    <t>Login Toggle2</t>
+  </si>
+  <si>
+    <t>Login Line (6)</t>
+  </si>
+  <si>
+    <t>HomePage Line (1)</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[4]/div[2]/div[2]/div/div/div[2]/div[2]/ul/li[2]/a/span/span[2]</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>//*[@id="557998ca7c339151688b4621"]</t>
+  </si>
+  <si>
+    <t>//*[@id="557998ca7c339151688b4621"]/span[2]/span</t>
+  </si>
+  <si>
     <t>//*[@id="{Project}"]/span[2]/span/span[1]</t>
   </si>
   <si>
     <t>//*[@id="{Project}"]/a/span/span[3]</t>
   </si>
   <si>
-    <t>ProjectOffAndOn#</t>
-  </si>
-  <si>
-    <t>InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn</t>
-  </si>
-  <si>
-    <t>Project=557998ca7c339151688b462b</t>
-  </si>
-  <si>
-    <t>Project=557998ca7c339151688b462d</t>
-  </si>
-  <si>
-    <t>Run the test project</t>
-  </si>
-  <si>
-    <t>WaitTime=4</t>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>{project}</t>
+  </si>
+  <si>
+    <t>Fails</t>
+  </si>
+  <si>
+    <t>Value=ON;tags=a,span,span</t>
+  </si>
+  <si>
+    <t>project=557998ca7c339151688b4621</t>
+  </si>
+  <si>
+    <t>project=557998ca7c339151688b4627</t>
+  </si>
+  <si>
+    <t>project=557998ca7c339151688b4625</t>
+  </si>
+  <si>
+    <t>//*[@id="{Project}"]/a</t>
+  </si>
+  <si>
+    <t>Value=Turn off test;queryParam=title;compareMode=contains;option=ignoreCase</t>
+  </si>
+  <si>
+    <t>Value=Turn on test;queryParam=title;compareMode=contains;option=ignoreCase</t>
+  </si>
+  <si>
+    <t>Verify the tooltip is Turn on test</t>
+  </si>
+  <si>
+    <t>Verify the tooltip is Turn off test</t>
+  </si>
+  <si>
+    <t>Work with Project (id={project})</t>
+  </si>
+  <si>
+    <t>Set the item / project (Spotlight) to work with</t>
+  </si>
+  <si>
+    <t>Set the item / project (Help) to worky with</t>
+  </si>
+  <si>
+    <t>Set the item / project (HomePage) to work with</t>
+  </si>
+  <si>
+    <t>Hover over the project</t>
+  </si>
+  <si>
+    <t>Verify theOn/Off indicator span says ON</t>
+  </si>
+  <si>
+    <t>Verify the On/Off span says ON</t>
   </si>
 </sst>
 </file>
@@ -578,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -588,12 +657,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -601,246 +669,6 @@
         <color rgb="FFFF0000"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1308,7 +1136,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1353,26 +1181,26 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I5" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoRoot#",  "setVars",  "",  "",  "",  "",  "URL=http:www.testomato.com;Browser=Chrome;userEmail=beymelamed@gmail.com;userName=Bey Melamed;Password=pooshek01",  "Set up the login credentials"});</v>
+        <v>list.add(new String[] {"TomatoRoot#",  "setVars",  "",  "",  "",  "",  "URL=http:www.testomato.com;Browser=Firefox;userEmail=beymelamed@gmail.com;userName=Bey Melamed;Password=pooshek01",  "Set up the login credentials"});</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>14</v>
@@ -1382,10 +1210,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1394,17 +1222,17 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1413,17 +1241,17 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1432,18 +1260,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 H4:H5">
-    <cfRule type="cellIs" dxfId="47" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="74" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="75" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="76" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H4:H5">
-    <cfRule type="cellIs" dxfId="44" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="73" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1469,7 +1297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A8"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1511,7 +1339,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1521,7 +1349,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -1533,7 +1361,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1545,36 +1373,36 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"TomatoLogin#",  "verifyWebDriver",  "",  "",  "getTitle",  "",  "Value=Testomato – Automated Website Testing;ptp=QSOF",  "Verify the page title"});</v>
+        <v>list.add(new String[] {"TomatoLogin#",  "verifyWebDriver",  "",  "",  "getTitle",  "",  "Value=Website Monitoring;ptp=QSOF;CompareMode=Contains;option=ignoreCase",  "Verify the page title"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -1583,24 +1411,24 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -1609,24 +1437,24 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -1635,50 +1463,50 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"TomatoLogin#",  "click",  "xpath",  "/html/body/header/nav/div/div[2]/ul[2]/li[1]/form[1]/div/input",  "",  "",  "ptp=QSOF",  "Click the Login button"});</v>
+        <v>list.add(new String[] {"TomatoLogin#",  "click",  "xpath",  "/html/body/header/nav/div/div[2]/ul/li[4]/div/form[1]/div[3]/button",  "",  "",  "ptp=QSOF",  "Click the Login button"});</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1687,18 +1515,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H8 H4:H6 H1">
-    <cfRule type="cellIs" dxfId="55" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="90" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="91" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="92" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8 H4:H6 H1">
-    <cfRule type="cellIs" dxfId="52" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="89" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1768,22 +1596,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I2" s="7" t="str">
         <f t="shared" ref="I2:I3" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
@@ -1792,22 +1620,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1819,18 +1647,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H3">
-    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1857,9 +1685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1869,7 +1697,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
     <col min="8" max="8" width="34.5703125" customWidth="1"/>
     <col min="9" max="9" width="63.140625" customWidth="1"/>
   </cols>
@@ -1903,262 +1731,198 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f t="shared" ref="I2:I4" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
+        <f t="shared" ref="I2" si="0">"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
         <v>list.add(new String[] {"TomatoProject#",  "click",  "xpath",  "//*[@id="showProjectMenu"]/span[2]",  "",  "",  "",  "Click the Project Carets"});</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"TomatoProject#",  "click",  "xpath",  "//*[@id="otherProjects"]/li[2]/a",  "",  "",  "",  "Click the KickStarter Project "});</v>
+        <f>"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"TomatoProject#",  "click",  "xpath",  "",  "",  "",  "",  "Click the KickStarter Project "});</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "",  "",  "",  "Project=557999147c3391153d8b45e8",  "Set the project to play with"});</v>
+        <f>"list.add(new String[] {" &amp; """" &amp; A4 &amp; """" &amp; ",  " &amp; """" &amp; B4 &amp; """" &amp; ",  " &amp; """" &amp; C4 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E4 &amp; """" &amp; ",  " &amp; """" &amp; F4 &amp; """" &amp; ",  " &amp; """" &amp; G4 &amp; """" &amp; ",  " &amp; """" &amp; H4 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "/html/body/div[2]/header/div/div[2]/div/div[2]/ul/li[2]/a",  "",  "",  "project=557998ca7c339151688b4621",  "Set the item / project (HomePage) to work with"});</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project '{Project}"});</v>
+        <f>"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D4 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project (id={project})"});</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ref="I6" si="1">"list.add(new String[] {" &amp; """" &amp; A6 &amp; """" &amp; ",  " &amp; """" &amp; B6 &amp; """" &amp; ",  " &amp; """" &amp; C6 &amp; """" &amp; ",  " &amp; """" &amp; D6 &amp;  """" &amp;  ",  " &amp; """" &amp; E6 &amp; """" &amp; ",  " &amp; """" &amp; F6 &amp; """" &amp; ",  " &amp; """" &amp; G6 &amp; """" &amp; ",  " &amp; """" &amp; H6 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "",  "",  "",  "Project=557998ca7c339151688b462b",  "Set the project to play with"});</v>
+        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "",  "",  "",  "project=557998ca7c339151688b4627",  "Set the item / project (Help) to worky with"});</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A7 &amp; """" &amp; ",  " &amp; """" &amp; B7 &amp; """" &amp; ",  " &amp; """" &amp; C7 &amp; """" &amp; ",  " &amp; """" &amp; D7 &amp;  """" &amp;  ",  " &amp; """" &amp; E7 &amp; """" &amp; ",  " &amp; """" &amp; F7 &amp; """" &amp; ",  " &amp; """" &amp; G7 &amp; """" &amp; ",  " &amp; """" &amp; H7 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project '{Project}"});</v>
+        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project (id={project})"});</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ref="I8" si="2">"list.add(new String[] {" &amp; """" &amp; A8 &amp; """" &amp; ",  " &amp; """" &amp; B8 &amp; """" &amp; ",  " &amp; """" &amp; C8 &amp; """" &amp; ",  " &amp; """" &amp; D8 &amp;  """" &amp;  ",  " &amp; """" &amp; E8 &amp; """" &amp; ",  " &amp; """" &amp; F8 &amp; """" &amp; ",  " &amp; """" &amp; G8 &amp; """" &amp; ",  " &amp; """" &amp; H8 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "",  "",  "",  "Project=557998ca7c339151688b462d",  "Set the project to play with"});</v>
+        <v>list.add(new String[] {"TomatoProject#",  "SetVars",  "",  "",  "",  "",  "project=557998ca7c339151688b4625",  "Set the item / project (Spotlight) to work with"});</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A9 &amp; """" &amp; ",  " &amp; """" &amp; B9 &amp; """" &amp; ",  " &amp; """" &amp; C9 &amp; """" &amp; ",  " &amp; """" &amp; D9 &amp;  """" &amp;  ",  " &amp; """" &amp; E9 &amp; """" &amp; ",  " &amp; """" &amp; F9 &amp; """" &amp; ",  " &amp; """" &amp; G9 &amp; """" &amp; ",  " &amp; """" &amp; H9 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project '{Project}"});</v>
+        <v>list.add(new String[] {"TomatoProject#",  "NewTest",  "",  "",  "",  "",  "InputSpecs=File!Testomato.xlsx!ToggleTestOffAndOn",  "Work with Project (id={project})"});</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="39" priority="54" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:H9">
+    <cfRule type="cellIs" dxfId="11" priority="54" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="55" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="56" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H5">
-    <cfRule type="cellIs" dxfId="36" priority="53" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="35" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="27" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="21" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1:H9">
+    <cfRule type="cellIs" dxfId="8" priority="53" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2180,11 +1944,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2192,7 +1956,7 @@
     <col min="1" max="1" width="20" style="7" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="13" style="7" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7"/>
     <col min="7" max="7" width="42.85546875" style="7" customWidth="1"/>
@@ -2230,33 +1994,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>"list.add(new String[] {" &amp; """" &amp; A2 &amp; """" &amp; ",  " &amp; """" &amp; B2 &amp; """" &amp; ",  " &amp; """" &amp; C2 &amp; """" &amp; ",  " &amp; """" &amp; D2 &amp;  """" &amp;  ",  " &amp; """" &amp; E2 &amp; """" &amp; ",  " &amp; """" &amp; F2 &amp; """" &amp; ",  " &amp; """" &amp; G2 &amp; """" &amp; ",  " &amp; """" &amp; H2 &amp; """" &amp; "});"</f>
-        <v>list.add(new String[] {"ProjectOffAndOn#",  "click",  "xpath",  "//*[@id="otherProjects"]/li[2]/a",  "",  "no",  "",  "Click the KickStarter Project "});</v>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "hover",  "id",  "{project}",  "",  "",  "",  "Hover over the project"});</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>57</v>
@@ -2266,206 +2028,306 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I10" si="0">"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
+        <f t="shared" ref="I3:I13" si="0">"list.add(new String[] {" &amp; """" &amp; A3 &amp; """" &amp; ",  " &amp; """" &amp; B3 &amp; """" &amp; ",  " &amp; """" &amp; C3 &amp; """" &amp; ",  " &amp; """" &amp; D3 &amp;  """" &amp;  ",  " &amp; """" &amp; E3 &amp; """" &amp; ",  " &amp; """" &amp; F3 &amp; """" &amp; ",  " &amp; """" &amp; G3 &amp; """" &amp; ",  " &amp; """" &amp; H3 &amp; """" &amp; "});"</f>
         <v>list.add(new String[] {"ProjectOffAndOn#",  "wait",  "",  "",  "",  "",  "WaitTime=2",  "Wait a bit to let the page render"});</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/span[2]/span/span[2]/span[1]",  "GetText",  "",  "Value=OK;CompareMode=Contains",  "Verify the span says OK"});</v>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "id",  "{project}",  "GetText",  "",  "Value=ON;tags=a,span,span",  "Verify theOn/Off indicator span says ON"});</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f t="shared" ref="I5" si="1">"list.add(new String[] {" &amp; """" &amp; A5 &amp; """" &amp; ",  " &amp; """" &amp; B5 &amp; """" &amp; ",  " &amp; """" &amp; C5 &amp; """" &amp; ",  " &amp; """" &amp; D5 &amp;  """" &amp;  ",  " &amp; """" &amp; E5 &amp; """" &amp; ",  " &amp; """" &amp; F5 &amp; """" &amp; ",  " &amp; """" &amp; G5 &amp; """" &amp; ",  " &amp; """" &amp; H5 &amp; """" &amp; "});"</f>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/a",  "GetAttribute",  "",  "Value=Turn off test;queryParam=title;compareMode=contains;option=ignoreCase",  "Verify the tooltip is Turn off test"});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="4" t="str">
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"ProjectOffAndOn#",  "click",  "xpath",  "//*[@id="{Project}"]/a/span/span[1]",  "",  "",  "",  "Click the toggle span to turn test off"});</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="4" t="str">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"ProjectOffAndOn#",  "wait",  "",  "",  "",  "",  "WaitTime=2",  "Wait a bit to let the page render"});</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="4" t="str">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/span[2]/span/span[1]",  "GetText",  "",  "Value=Test is disabled;CompareMode=Contains",  "Verify the span says Test is disabled"});</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/a",  "GetAttribute",  "",  "Value=Turn on test;queryParam=title;compareMode=contains;option=ignoreCase",  "Verify the tooltip is Turn on test"});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="4" t="str">
+      <c r="C10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>list.add(new String[] {"ProjectOffAndOn#",  "click",  "xpath",  "//*[@id="{Project}"]/a/span/span[3]",  "",  "",  "",  "Click the toggle span to turn test on"});</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="4" t="str">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"ProjectOffAndOn#",  "wait",  "",  "",  "",  "",  "WaitTime=4",  "Wait a bit to let the page render"});</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "wait",  "",  "",  "",  "",  "WaitTime=2",  "Wait a bit to let the page render"});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "id",  "{project}",  "GetText",  "",  "Value=ON;tags=a,span,span",  "Verify the On/Off span says ON"});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/span[2]/span/span[2]/span[1]",  "GetText",  "",  "Value=OK;CompareMode=Contains",  "Verify the span says Test is disabled"});</v>
+        <v>list.add(new String[] {"ProjectOffAndOn#",  "verifyWebElement",  "xpath",  "//*[@id="{Project}"]/a",  "GetAttribute",  "",  "Value=Turn off test;queryParam=title;compareMode=contains;option=ignoreCase",  "Verify the tooltip is Turn off test"});</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,7 +2389,7 @@
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2544,7 +2406,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>63</v>
@@ -2584,10 +2446,10 @@
         <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2641,10 +2503,10 @@
         <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2664,7 +2526,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2787,7 +2649,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2803,10 +2665,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2819,51 +2681,51 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -2874,10 +2736,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -2892,6 +2754,12 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="11" spans="1:4">
@@ -2900,38 +2768,86 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" s="9"/>
+      <c r="C20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
